--- a/case_study_whitepapers/KPI_sistema_qualita_maturita.xlsx
+++ b/case_study_whitepapers/KPI_sistema_qualita_maturita.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f55213cc97aac928/Desktop/Progetto Improving Skills Andy/Career/portfolio progetti/case_study_whitepapers/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f55213cc97aac928/Documenti/GitHub/Portfolio/case_study_whitepapers/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="11_9592FFD097D9AECF8A160B87D336BA044EA6030D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C27F97F1-FF63-4B89-952F-2CFC0AA0C2DF}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="11_9592FFD097D9AECF8A160B87D336BA044EA6030D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7AF5A0D2-8C23-44A5-8309-DADDB59FDB6B}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -273,7 +273,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Corbel"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -281,7 +281,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Corbel"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -344,93 +344,58 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Cornice">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Cornice">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="545454"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="BFBFBF"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="40BAD2"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="FAB900"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="90BB23"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="EE7008"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="1AB39F"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="D5393D"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="90BB23"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="EE7008"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Cornice">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Corbel" panose="020B0503020204020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
+        <a:font script="Hang" typeface="HY중고딕"/>
+        <a:font script="Hans" typeface="幼圆"/>
+        <a:font script="Hant" typeface="微軟正黑體"/>
+        <a:font script="Arab" typeface="Tahoma"/>
+        <a:font script="Hebr" typeface="Gisha"/>
+        <a:font script="Thai" typeface="DilleniaUPC"/>
         <a:font script="Ethi" typeface="Nyala"/>
         <a:font script="Beng" typeface="Vrinda"/>
         <a:font script="Gujr" typeface="Shruti"/>
@@ -451,110 +416,99 @@
         <a:font script="Laoo" typeface="DokChampa"/>
         <a:font script="Sinh" typeface="Iskoola Pota"/>
         <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Viet" typeface="Tahoma"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Corbel" panose="020B0503020204020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
+        <a:font script="Hang" typeface="HY중고딕"/>
+        <a:font script="Hans" typeface="幼圆"/>
+        <a:font script="Hant" typeface="微軟正黑體"/>
+        <a:font script="Arab" typeface="Tahoma"/>
+        <a:font script="Hebr" typeface="Gisha"/>
+        <a:font script="Thai" typeface="DilleniaUPC"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Verdana"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Cornice">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="80000"/>
+            <a:satMod val="150000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
         <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="10795" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="17145" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:alpha val="50000"/>
+              <a:satMod val="150000"/>
+            </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="44450" dist="13970" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
+                <a:alpha val="45000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -562,12 +516,10 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
+            <a:lightRig rig="twoPt" dir="tl"/>
           </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+          <a:sp3d prstMaterial="flat">
+            <a:bevelT w="12700" h="25400" prst="coolSlant"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -575,56 +527,50 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:shade val="98000"/>
+                <a:satMod val="120000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="48000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:shade val="90000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:tint val="98000"/>
+                <a:shade val="80000"/>
+                <a:satMod val="100000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Frame" id="{F226E7A2-7162-461C-9490-D27D9DC04E43}" vid="{629A0216-3BBD-45C0-B63F-2683BEA18F60}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
